--- a/src/frontend/app/classes/CRUD.xlsx
+++ b/src/frontend/app/classes/CRUD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/jannik_voelker_sap_com/Documents/01 Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\matze\IceCreamEmpire_S4\src\frontend\app\classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08635AE-3440-4A28-8A75-7E9277B1B2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4DB020-FA70-4719-852B-5E7ABE80569D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{2C0410C6-07F4-4A85-8F0E-62BEF649501F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C0410C6-07F4-4A85-8F0E-62BEF649501F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Delete Flavor -&gt; Content wird mitgelöscht</t>
   </si>
   <si>
-    <t>Create new entries for new vehicle with every flavor in vehicle stores</t>
-  </si>
-  <si>
     <t>Create new entries for new flavor in every vehicle + warehouse</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Aktion</t>
+  </si>
+  <si>
+    <t>Create new entries for new vehicle with every flavor in vehicle stores (trigger)</t>
   </si>
 </sst>
 </file>
@@ -607,23 +607,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2543773A-A912-4687-9492-71FA8236F158}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.47265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -646,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -696,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -732,7 +732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -746,10 +746,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
@@ -771,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -782,10 +782,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -849,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
@@ -863,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
@@ -885,15 +885,15 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
@@ -902,12 +902,12 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -916,9 +916,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
@@ -927,9 +927,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
@@ -938,15 +938,15 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -955,23 +955,23 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>12</v>
@@ -980,12 +980,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -994,12 +994,12 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
@@ -1008,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1030,29 +1030,29 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
@@ -1061,51 +1061,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
@@ -1114,29 +1114,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1153,16 +1153,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
